--- a/Exam demo/Demo.xlsx
+++ b/Exam demo/Demo.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Davut\University\Master ITMO\1 semester\Data pre-processing and statistical elements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Davut\University\Master ITMO\1 semester\Data pre-processing and statistical elements\Exam demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895F749D-97EA-4801-BB68-43FE9D9ABDEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AECE3CB-4CDD-49B8-B30B-DE29A9D65D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" activeTab="5" xr2:uid="{427C2EB9-DD4F-4367-B34F-8802181DE0A3}"/>
+    <workbookView xWindow="5700" yWindow="3420" windowWidth="21600" windowHeight="11295" activeTab="5" xr2:uid="{427C2EB9-DD4F-4367-B34F-8802181DE0A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -30,8 +30,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId7"/>
-    <pivotCache cacheId="7" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -285,11 +285,7 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -298,7 +294,11 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3774,7 +3774,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1E20BF61-9CE0-4372-A719-DE47C632ABB7}" name="Сводная таблица1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1E20BF61-9CE0-4372-A719-DE47C632ABB7}" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="E3:F13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" showAll="0">
@@ -3929,7 +3929,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68EFC43B-0306-4F4E-9D00-D3BDA6A7DEC8}" name="Сводная таблица2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{68EFC43B-0306-4F4E-9D00-D3BDA6A7DEC8}" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H3:H4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -3960,7 +3960,7 @@
     <dataField name="Сумма по полю Number of cases" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="1">
+    <format dxfId="4">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -4081,7 +4081,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{23D99CC5-B0CD-46A7-86D6-C5C3582953D1}" name="task3_demo_countries" displayName="task3_demo_countries" ref="A1:C64" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="A1:C64" xr:uid="{23D99CC5-B0CD-46A7-86D6-C5C3582953D1}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2F27D225-007E-430F-A03F-A950EA7EF162}" uniqueName="1" name="Cname" queryTableFieldId="1" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{2F27D225-007E-430F-A03F-A950EA7EF162}" uniqueName="1" name="Cname" queryTableFieldId="1" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{5645CFC9-53D5-4AB8-8433-178E6D80F4B5}" uniqueName="2" name="Year" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{1F3FF980-B930-4BEC-A991-6DFF672302A4}" uniqueName="3" name="Number of cases" queryTableFieldId="3"/>
   </tableColumns>
@@ -4093,8 +4093,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD3A70E2-0DDF-4401-A67D-6E0D383035FA}" name="task3_demo_regions" displayName="task3_demo_regions" ref="E1:F9" tableType="queryTable" totalsRowShown="0">
   <autoFilter ref="E1:F9" xr:uid="{BD3A70E2-0DDF-4401-A67D-6E0D383035FA}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{51329813-465E-4A74-A5D0-80B56B6DD9DD}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{F1335EEB-A1BA-404B-8E93-C922EDB4BDD9}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{51329813-465E-4A74-A5D0-80B56B6DD9DD}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F1335EEB-A1BA-404B-8E93-C922EDB4BDD9}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4421,7 +4421,7 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A28"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5223,7 +5223,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6064,7 +6064,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6862,7 +6862,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7111,7 +7111,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7198,51 +7198,51 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
-        <f>ROUND(B2,2)</f>
+        <f t="shared" ref="B8:C12" si="2">ROUND(B2,2)</f>
         <v>0.08</v>
       </c>
       <c r="C8" s="6">
-        <f>ROUND(C2,2)</f>
+        <f t="shared" si="2"/>
         <v>0.18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
-        <f>ROUND(B3,2)</f>
+        <f t="shared" si="2"/>
         <v>0.33</v>
       </c>
       <c r="C9" s="6">
-        <f>ROUND(C3,2)</f>
+        <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
-        <f>ROUND(B4,2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="C10" s="6">
-        <f>ROUND(C4,2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
-        <f>ROUND(B5,2)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="C11" s="6">
-        <f>ROUND(C5,2)</f>
+        <f t="shared" si="2"/>
         <v>0.91</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
-        <f>ROUND(B6,2)</f>
+        <f t="shared" si="2"/>
         <v>0.33</v>
       </c>
       <c r="C12" s="6">
-        <f>ROUND(C6,2)</f>
+        <f t="shared" si="2"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
@@ -7297,8 +7297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F56DB8-9F59-44DE-88CA-DF5B618ACC54}">
   <dimension ref="A1:H501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J52" workbookViewId="0">
-      <selection activeCell="M75" sqref="M75:M76"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7449,11 +7449,11 @@
         <v>7.9821380488422094E-5</v>
       </c>
       <c r="F10">
-        <f>E10+$F$8</f>
+        <f t="shared" ref="F10:F19" si="0">E10+$F$8</f>
         <v>0.17699253414034957</v>
       </c>
       <c r="G10">
-        <f>COUNTIFS(A:A,"&gt;="&amp;E10,A:A,"&lt;"&amp;F10)</f>
+        <f t="shared" ref="G10:G19" si="1">COUNTIFS(A:A,"&gt;="&amp;E10,A:A,"&lt;"&amp;F10)</f>
         <v>325</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -7473,11 +7473,11 @@
         <v>0.17699253414034957</v>
       </c>
       <c r="F11">
-        <f>E11+$F$8</f>
+        <f t="shared" si="0"/>
         <v>0.35390524690021075</v>
       </c>
       <c r="G11">
-        <f>COUNTIFS(A:A,"&gt;="&amp;E11,A:A,"&lt;"&amp;F11)</f>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
     </row>
@@ -7490,15 +7490,15 @@
         <v>-0.14592964477636267</v>
       </c>
       <c r="E12">
-        <f t="shared" ref="E12:E19" si="0">F11</f>
+        <f t="shared" ref="E12:E19" si="2">F11</f>
         <v>0.35390524690021075</v>
       </c>
       <c r="F12">
-        <f>E12+$F$8</f>
+        <f t="shared" si="0"/>
         <v>0.53081795966007195</v>
       </c>
       <c r="G12" s="4">
-        <f>COUNTIFS(A:A,"&gt;="&amp;E12,A:A,"&lt;"&amp;F12)</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
     </row>
@@ -7511,15 +7511,15 @@
         <v>-7.1507195065825369E-2</v>
       </c>
       <c r="E13">
+        <f t="shared" si="2"/>
+        <v>0.53081795966007195</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
-        <v>0.53081795966007195</v>
-      </c>
-      <c r="F13">
-        <f>E13+$F$8</f>
         <v>0.70773067241993304</v>
       </c>
       <c r="G13">
-        <f>COUNTIFS(A:A,"&gt;="&amp;E13,A:A,"&lt;"&amp;F13)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -7532,15 +7532,15 @@
         <v>-0.13164296924061727</v>
       </c>
       <c r="E14">
+        <f t="shared" si="2"/>
+        <v>0.70773067241993304</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
-        <v>0.70773067241993304</v>
-      </c>
-      <c r="F14">
-        <f>E14+$F$8</f>
         <v>0.88464338517979413</v>
       </c>
       <c r="G14">
-        <f>COUNTIFS(A:A,"&gt;="&amp;E14,A:A,"&lt;"&amp;F14)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
@@ -7553,15 +7553,15 @@
         <v>-9.9309308505936167E-2</v>
       </c>
       <c r="E15">
+        <f t="shared" si="2"/>
+        <v>0.88464338517979413</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
-        <v>0.88464338517979413</v>
-      </c>
-      <c r="F15">
-        <f>E15+$F$8</f>
         <v>1.0615560979396552</v>
       </c>
       <c r="G15" s="4">
-        <f>COUNTIFS(A:A,"&gt;="&amp;E15,A:A,"&lt;"&amp;F15)</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -7574,15 +7574,15 @@
         <v>-5.902304215726438E-2</v>
       </c>
       <c r="E16">
+        <f t="shared" si="2"/>
+        <v>1.0615560979396552</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
-        <v>1.0615560979396552</v>
-      </c>
-      <c r="F16">
-        <f>E16+$F$8</f>
         <v>1.2384688106995163</v>
       </c>
       <c r="G16">
-        <f>COUNTIFS(A:A,"&gt;="&amp;E16,A:A,"&lt;"&amp;F16)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -7595,15 +7595,15 @@
         <v>0.23544223014126461</v>
       </c>
       <c r="E17">
+        <f t="shared" si="2"/>
+        <v>1.2384688106995163</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="0"/>
-        <v>1.2384688106995163</v>
-      </c>
-      <c r="F17">
-        <f>E17+$F$8</f>
         <v>1.4153815234593774</v>
       </c>
       <c r="G17">
-        <f>COUNTIFS(A:A,"&gt;="&amp;E17,A:A,"&lt;"&amp;F17)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7616,15 +7616,15 @@
         <v>6.9837962808977638E-2</v>
       </c>
       <c r="E18">
+        <f t="shared" si="2"/>
+        <v>1.4153815234593774</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="0"/>
-        <v>1.4153815234593774</v>
-      </c>
-      <c r="F18">
-        <f>E18+$F$8</f>
         <v>1.5922942362192385</v>
       </c>
       <c r="G18" s="4">
-        <f>COUNTIFS(A:A,"&gt;="&amp;E18,A:A,"&lt;"&amp;F18)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -7637,15 +7637,15 @@
         <v>0.4339260909552406</v>
       </c>
       <c r="E19">
+        <f t="shared" si="2"/>
+        <v>1.5922942362192385</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="0"/>
-        <v>1.5922942362192385</v>
-      </c>
-      <c r="F19">
-        <f>E19+$F$8</f>
         <v>1.7692069489790996</v>
       </c>
       <c r="G19">
-        <f>COUNTIFS(A:A,"&gt;="&amp;E19,A:A,"&lt;"&amp;F19)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
